--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe25off.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe25off.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23702"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kayalvizhi\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E6E6BF58-D08E-4BDF-BA8C-DB938543AA5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{72EF168E-6D70-4451-8A3B-2A52B03EEE4B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E6E6BF58-D08E-4BDF-BA8C-DB938543AA5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9CB97C35-F8E2-4964-A66A-6E20C71D6392}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{524ED125-30CC-4F05-9571-89364860FE01}"/>
   </bookViews>
@@ -2134,15 +2134,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47EEB8100460B478BDC3BCCBE3D5051" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="829e995fc61fbfa25718206016b29da6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2" xmlns:ns3="3e63a3be-2d53-41f2-914e-dd0efc332534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3545440ad2b936a9d10385f8b267d779" ns2:_="" ns3:_="">
     <xsd:import namespace="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
@@ -2307,6 +2298,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2314,11 +2314,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F00A466-466B-4C48-8934-FE31FB6F7DA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8630BE8-022D-49C7-AD20-390D8C82B12F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8630BE8-022D-49C7-AD20-390D8C82B12F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F00A466-466B-4C48-8934-FE31FB6F7DA9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
